--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="865">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-5.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test3/Soluzioni-5.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40457" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61806" uniqueCount="865">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30738,7 +30738,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>90</v>
@@ -30756,7 +30756,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>90</v>
@@ -30828,7 +30828,7 @@
         <v>90</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>90</v>
@@ -30840,7 +30840,7 @@
         <v>90</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="AK2" s="5" t="s">
         <v>90</v>
@@ -32136,7 +32136,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>90</v>
@@ -32148,10 +32148,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32166,7 +32166,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32181,7 +32181,7 @@
         <v>90</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>90</v>
@@ -32205,7 +32205,7 @@
         <v>90</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>90</v>
@@ -32220,22 +32220,22 @@
         <v>90</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -32838,7 +32838,7 @@
         <v>90</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>90</v>
@@ -32853,10 +32853,10 @@
         <v>90</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>90</v>
@@ -32868,22 +32868,22 @@
         <v>90</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>90</v>
@@ -32892,7 +32892,7 @@
         <v>90</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>90</v>
@@ -32907,7 +32907,7 @@
         <v>90</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>90</v>
@@ -32922,10 +32922,10 @@
         <v>90</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>90</v>
@@ -33064,7 +33064,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>90</v>
@@ -33076,7 +33076,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>90</v>
@@ -33118,7 +33118,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -33133,7 +33133,7 @@
         <v>90</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>90</v>
@@ -33148,7 +33148,7 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
@@ -33160,10 +33160,10 @@
         <v>90</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>90</v>
@@ -33177,7 +33177,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>90</v>
@@ -33189,7 +33189,7 @@
         <v>90</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>90</v>
@@ -33225,7 +33225,7 @@
         <v>90</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>90</v>
@@ -33237,7 +33237,7 @@
         <v>90</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>90</v>
@@ -33424,46 +33424,46 @@
         <v>90</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
@@ -33475,7 +33475,7 @@
         <v>90</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33499,10 +33499,10 @@
         <v>90</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>90</v>
@@ -33511,10 +33511,10 @@
         <v>90</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26">
@@ -33528,7 +33528,7 @@
         <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>90</v>
@@ -33594,10 +33594,10 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>90</v>
@@ -33757,52 +33757,52 @@
         <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>90</v>
@@ -33811,7 +33811,7 @@
         <v>90</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
@@ -33820,7 +33820,7 @@
         <v>90</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33832,13 +33832,13 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>90</v>
@@ -33847,13 +33847,13 @@
         <v>90</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="AH28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="AJ28" s="5" t="s">
         <v>90</v>
@@ -34105,7 +34105,7 @@
         <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>90</v>
@@ -34117,7 +34117,7 @@
         <v>90</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>90</v>
@@ -34153,7 +34153,7 @@
         <v>90</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>90</v>
@@ -34189,7 +34189,7 @@
         <v>90</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF31" s="5" t="s">
         <v>90</v>
@@ -34198,7 +34198,7 @@
         <v>90</v>
       </c>
       <c r="AH31" s="5" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>90</v>
@@ -35030,115 +35030,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
     </row>
     <row r="40">
@@ -35146,115 +35146,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35262,115 +35262,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>98</v>
+        <v>389</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>98</v>
+        <v>436</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>98</v>
+        <v>470</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>98</v>
+        <v>489</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>98</v>
+        <v>528</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>98</v>
+        <v>571</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>98</v>
+        <v>608</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>98</v>
+        <v>631</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>98</v>
+        <v>656</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>98</v>
+        <v>686</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>98</v>
+        <v>715</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>98</v>
+        <v>746</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>98</v>
+        <v>775</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>98</v>
+        <v>806</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>98</v>
+        <v>838</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>98</v>
+        <v>855</v>
       </c>
     </row>
     <row r="42">
